--- a/public/download/master_upload_iami.xlsx
+++ b/public/download/master_upload_iami.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kerjaan\MAHSING\request\WHS-KARAWANG\IAMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{057328E3-E8E5-48FB-8F8C-4790174A4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A00BB8-151B-4079-AA77-CF1D81D9F39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0F87140-3CEB-4020-92BB-402383C9E1AE}"/>
+    <workbookView xWindow="8745" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{2DCFE441-11BB-46CD-84B6-4CBEBFE21DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>part_name</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
   <si>
     <t>order_number</t>
   </si>
@@ -42,38 +54,80 @@
     <t>purchase_order_number</t>
   </si>
   <si>
-    <t>order_date</t>
-  </si>
-  <si>
-    <t>order_time</t>
-  </si>
-  <si>
     <t>delivery_cycle</t>
   </si>
   <si>
     <t>part_number</t>
   </si>
   <si>
-    <t>part_name</t>
-  </si>
-  <si>
     <t>order_qty</t>
   </si>
   <si>
+    <t>kanban_qty</t>
+  </si>
+  <si>
     <t>total_kanban</t>
   </si>
   <si>
-    <t>kanban_qty</t>
-  </si>
-  <si>
-    <t>lp</t>
+    <t>OKB22083928</t>
+  </si>
+  <si>
+    <t>IRM-8982589860</t>
+  </si>
+  <si>
+    <t>MUD COVER</t>
+  </si>
+  <si>
+    <t>MKM</t>
+  </si>
+  <si>
+    <t>IRM-8982589870</t>
+  </si>
+  <si>
+    <t>IRM-8982695812</t>
+  </si>
+  <si>
+    <t>COVER ASM,MUD VA W/O FLAP</t>
+  </si>
+  <si>
+    <t>IRM-8982695822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKB22083929 </t>
+  </si>
+  <si>
+    <t>IRM-8976955530MB</t>
+  </si>
+  <si>
+    <t>"BUMPER;FRONT"</t>
+  </si>
+  <si>
+    <t>IRM-8976955540MB</t>
+  </si>
+  <si>
+    <t>IRM-8976957850</t>
+  </si>
+  <si>
+    <t>"COVER;MUD"</t>
+  </si>
+  <si>
+    <t>IRM-8976957860</t>
+  </si>
+  <si>
+    <t>IRM-8982446401</t>
+  </si>
+  <si>
+    <t>"GRILLE ASM;RADIATOR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKB22083930  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +141,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -109,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,29 +202,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{81A58DDE-441B-46BB-8128-7E2B95DF34ED}"/>
+    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{7C364261-BBF9-4FD4-B7EA-F514FB2F4403}"/>
+    <cellStyle name="Normal_Sheet1_10" xfId="3" xr:uid="{DB2E0E9C-1F52-4EE8-B633-20A640A8F638}"/>
+    <cellStyle name="Normal_Sheet1_11" xfId="4" xr:uid="{F2E21E35-76F2-4DB6-8A1E-061FE1F694E2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,60 +593,761 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731AC0D3-8B50-48FF-8C73-8E620F970D64}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B65A72-C994-4185-A5D4-FC0078AEC888}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C2" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8">
+        <v>72</v>
+      </c>
+      <c r="I2" s="8">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C3" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8">
+        <v>72</v>
+      </c>
+      <c r="I3" s="8">
+        <v>6</v>
+      </c>
+      <c r="J3" s="9">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C4" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8">
+        <v>60</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C5" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8">
+        <v>60</v>
+      </c>
+      <c r="I5" s="8">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="13">
+        <v>36</v>
+      </c>
+      <c r="I6" s="13">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>12</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="13">
+        <v>36</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>12</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C8" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="13">
+        <v>36</v>
+      </c>
+      <c r="I8" s="13">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>12</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="13">
+        <v>36</v>
+      </c>
+      <c r="I9" s="13">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9">
+        <v>12</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13">
+        <v>42</v>
+      </c>
+      <c r="I10" s="13">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9">
+        <v>6</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C11" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="13">
+        <v>12</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>12</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C12" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="13">
+        <v>12</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>12</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30">
+      <c r="A13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="10">
+        <v>12</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <v>12</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30">
+      <c r="A14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="10">
+        <v>12</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>12</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="10">
+        <v>12</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>12</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C16" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="10">
+        <v>12</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>12</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="10">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C18" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="E18" s="9">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="10">
+        <v>48</v>
+      </c>
+      <c r="I18" s="10">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
+      <c r="J18" s="9">
+        <v>12</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10">
+        <v>48</v>
+      </c>
+      <c r="I19" s="10">
+        <v>4</v>
+      </c>
+      <c r="J19" s="9">
+        <v>12</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60">
+      <c r="A20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="10">
+        <v>48</v>
+      </c>
+      <c r="I20" s="10">
+        <v>4</v>
+      </c>
+      <c r="J20" s="9">
+        <v>12</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2710028324</v>
+      </c>
+      <c r="C21" s="12">
+        <v>44904</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="10">
+        <v>48</v>
+      </c>
+      <c r="I21" s="10">
+        <v>4</v>
+      </c>
+      <c r="J21" s="9">
+        <v>12</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
